--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="172">
   <si>
     <t>标书说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,74 +60,499 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>袁1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁003</t>
+  </si>
+  <si>
+    <t>袁3</t>
+  </si>
+  <si>
+    <t>袁004</t>
+  </si>
+  <si>
+    <t>袁4</t>
+  </si>
+  <si>
+    <t>袁005</t>
+  </si>
+  <si>
+    <t>袁5</t>
+  </si>
+  <si>
+    <t>袁006</t>
+  </si>
+  <si>
+    <t>袁6</t>
+  </si>
+  <si>
+    <t>袁007</t>
+  </si>
+  <si>
+    <t>袁7</t>
+  </si>
+  <si>
+    <t>袁008</t>
+  </si>
+  <si>
+    <t>袁8</t>
+  </si>
+  <si>
+    <t>袁009</t>
+  </si>
+  <si>
+    <t>袁9</t>
+  </si>
+  <si>
+    <t>袁010</t>
+  </si>
+  <si>
+    <t>袁10</t>
+  </si>
+  <si>
+    <t>袁011</t>
+  </si>
+  <si>
+    <t>袁11</t>
+  </si>
+  <si>
+    <t>袁012</t>
+  </si>
+  <si>
+    <t>袁12</t>
+  </si>
+  <si>
+    <t>袁013</t>
+  </si>
+  <si>
+    <t>袁13</t>
+  </si>
+  <si>
+    <t>袁014</t>
+  </si>
+  <si>
+    <t>袁14</t>
+  </si>
+  <si>
+    <t>袁015</t>
+  </si>
+  <si>
+    <t>袁15</t>
+  </si>
+  <si>
+    <t>袁016</t>
+  </si>
+  <si>
+    <t>袁16</t>
+  </si>
+  <si>
+    <t>袁017</t>
+  </si>
+  <si>
+    <t>袁17</t>
+  </si>
+  <si>
+    <t>袁018</t>
+  </si>
+  <si>
+    <t>袁18</t>
+  </si>
+  <si>
+    <t>袁019</t>
+  </si>
+  <si>
+    <t>袁19</t>
+  </si>
+  <si>
+    <t>袁020</t>
+  </si>
+  <si>
+    <t>袁20</t>
+  </si>
+  <si>
+    <t>袁021</t>
+  </si>
+  <si>
+    <t>袁21</t>
+  </si>
+  <si>
+    <t>袁022</t>
+  </si>
+  <si>
+    <t>袁22</t>
+  </si>
+  <si>
+    <t>袁023</t>
+  </si>
+  <si>
+    <t>袁23</t>
+  </si>
+  <si>
+    <t>袁024</t>
+  </si>
+  <si>
+    <t>袁24</t>
+  </si>
+  <si>
+    <t>袁025</t>
+  </si>
+  <si>
+    <t>袁25</t>
+  </si>
+  <si>
+    <t>袁026</t>
+  </si>
+  <si>
+    <t>袁26</t>
+  </si>
+  <si>
+    <t>袁027</t>
+  </si>
+  <si>
+    <t>袁27</t>
+  </si>
+  <si>
+    <t>袁028</t>
+  </si>
+  <si>
+    <t>袁28</t>
+  </si>
+  <si>
+    <t>袁029</t>
+  </si>
+  <si>
+    <t>袁29</t>
+  </si>
+  <si>
+    <t>袁030</t>
+  </si>
+  <si>
+    <t>袁30</t>
+  </si>
+  <si>
+    <t>袁031</t>
+  </si>
+  <si>
+    <t>袁31</t>
+  </si>
+  <si>
+    <t>袁032</t>
+  </si>
+  <si>
+    <t>袁32</t>
+  </si>
+  <si>
+    <t>袁033</t>
+  </si>
+  <si>
+    <t>袁33</t>
+  </si>
+  <si>
+    <t>袁034</t>
+  </si>
+  <si>
+    <t>袁34</t>
+  </si>
+  <si>
+    <t>袁035</t>
+  </si>
+  <si>
+    <t>袁35</t>
+  </si>
+  <si>
+    <t>袁036</t>
+  </si>
+  <si>
+    <t>袁36</t>
+  </si>
+  <si>
+    <t>袁037</t>
+  </si>
+  <si>
+    <t>袁37</t>
+  </si>
+  <si>
+    <t>袁038</t>
+  </si>
+  <si>
+    <t>袁38</t>
+  </si>
+  <si>
+    <t>袁039</t>
+  </si>
+  <si>
+    <t>袁39</t>
+  </si>
+  <si>
+    <t>袁040</t>
+  </si>
+  <si>
+    <t>袁40</t>
+  </si>
+  <si>
+    <t>123456789123456001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999903</t>
+  </si>
+  <si>
+    <t>99999904</t>
+  </si>
+  <si>
+    <t>99999905</t>
+  </si>
+  <si>
+    <t>99999906</t>
+  </si>
+  <si>
+    <t>99999907</t>
+  </si>
+  <si>
+    <t>99999908</t>
+  </si>
+  <si>
+    <t>99999909</t>
+  </si>
+  <si>
+    <t>99999910</t>
+  </si>
+  <si>
+    <t>99999911</t>
+  </si>
+  <si>
+    <t>99999912</t>
+  </si>
+  <si>
+    <t>99999913</t>
+  </si>
+  <si>
+    <t>99999914</t>
+  </si>
+  <si>
+    <t>99999915</t>
+  </si>
+  <si>
+    <t>99999916</t>
+  </si>
+  <si>
+    <t>99999917</t>
+  </si>
+  <si>
+    <t>99999918</t>
+  </si>
+  <si>
+    <t>99999919</t>
+  </si>
+  <si>
+    <t>99999920</t>
+  </si>
+  <si>
+    <t>99999921</t>
+  </si>
+  <si>
+    <t>99999922</t>
+  </si>
+  <si>
+    <t>99999923</t>
+  </si>
+  <si>
+    <t>99999924</t>
+  </si>
+  <si>
+    <t>99999925</t>
+  </si>
+  <si>
+    <t>99999926</t>
+  </si>
+  <si>
+    <t>99999927</t>
+  </si>
+  <si>
+    <t>99999928</t>
+  </si>
+  <si>
+    <t>99999929</t>
+  </si>
+  <si>
+    <t>99999930</t>
+  </si>
+  <si>
+    <t>99999931</t>
+  </si>
+  <si>
+    <t>99999932</t>
+  </si>
+  <si>
+    <t>99999933</t>
+  </si>
+  <si>
+    <t>99999934</t>
+  </si>
+  <si>
+    <t>99999935</t>
+  </si>
+  <si>
+    <t>99999936</t>
+  </si>
+  <si>
+    <t>99999937</t>
+  </si>
+  <si>
+    <t>99999938</t>
+  </si>
+  <si>
+    <t>99999939</t>
+  </si>
+  <si>
+    <t>99999940</t>
+  </si>
+  <si>
+    <t>1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1219</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>99999901</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-  </si>
-  <si>
-    <t>何4</t>
-  </si>
-  <si>
-    <t>何5</t>
-  </si>
-  <si>
-    <t>何6</t>
-  </si>
-  <si>
-    <t>何7</t>
-  </si>
-  <si>
-    <t>何8</t>
-  </si>
-  <si>
-    <t>何9</t>
-  </si>
-  <si>
-    <t>何001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何003</t>
-  </si>
-  <si>
-    <t>何004</t>
-  </si>
-  <si>
-    <t>何005</t>
-  </si>
-  <si>
-    <t>何006</t>
-  </si>
-  <si>
-    <t>何007</t>
-  </si>
-  <si>
-    <t>何008</t>
-  </si>
-  <si>
-    <t>何009</t>
   </si>
 </sst>
 </file>
@@ -191,8 +616,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -216,17 +653,29 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,46 +1022,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>11111111</v>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -620,25 +1069,25 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>11111111</v>
+      <c r="H2" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>22222222</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -646,13 +1095,13 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>22222222</v>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -660,11 +1109,11 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>33333333</v>
+      <c r="D4" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -672,25 +1121,25 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>33333333</v>
+      <c r="H4" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44444444</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -698,25 +1147,25 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <v>44444444</v>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>55555555</v>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -724,25 +1173,25 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <v>55555555</v>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>66666666</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -750,25 +1199,25 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>66666666</v>
+      <c r="H7" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>77777777</v>
+      <c r="D8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
@@ -776,25 +1225,25 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>77777777</v>
+      <c r="H8" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>88888888</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -802,25 +1251,25 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>88888888</v>
+      <c r="H9" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>99999999</v>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -828,8 +1277,814 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <v>99999999</v>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="258">
   <si>
     <t>标书说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,19 +735,19 @@
   </si>
   <si>
     <t>张韫华</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>张从颖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扈龙喆</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杜炜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>何1</t>
@@ -759,38 +759,86 @@
   </si>
   <si>
     <t>310108196909244418</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>370303197306126337</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>齐磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚吉岷</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>姚吉岷</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>31010419881019723X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>戴莹莹</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>320923199103021242</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张显青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31011019801104041x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310115198701187824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310106197708151612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440902198803080447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2105041983090022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -805,11 +853,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.3"/>
-      <color rgb="FF75715E"/>
-      <name val="Menlo"/>
     </font>
     <font>
       <u/>
@@ -830,15 +873,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
     </font>
@@ -853,19 +887,30 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF75715E"/>
+      <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +965,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -930,159 +981,166 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="53" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="53" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="81">
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 7" xfId="53"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1116,6 +1174,14 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1147,6 +1213,14 @@
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1476,1673 +1550,1820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="G31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="G38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10" t="s">
+      <c r="G40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="G41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="s">
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="G46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7" t="s">
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7" t="s">
+      <c r="G48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7" t="s">
+      <c r="G49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="G51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="G52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7" t="s">
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="G54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7" t="s">
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="16">
         <v>54701863</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="16">
         <v>2107</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
         <v>54701863</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="18">
         <v>55014660</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="18">
         <v>1824</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12">
+      <c r="G57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
         <v>55014660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="23">
+        <v>54858186</v>
+      </c>
+      <c r="E58" s="23">
+        <v>1167</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="23">
+        <v>54858186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="23">
+        <v>54932403</v>
+      </c>
+      <c r="E59" s="23">
+        <v>2095</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="23">
+        <v>54932403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="23">
+        <v>55049993</v>
+      </c>
+      <c r="E60" s="23">
+        <v>4142</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="23">
+        <v>55049993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="1">
+        <v>54857526</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1121</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="23">
+        <v>54932403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="1">
+        <v>55046375</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9860</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="23">
+        <v>55049993</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -981,7 +981,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1041,6 +1041,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,7 +1142,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 7" xfId="53"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1182,6 +1184,7 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1221,6 +1224,7 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1553,7 +1557,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3333,8 +3337,8 @@
       <c r="H61" s="2">
         <v>0</v>
       </c>
-      <c r="I61" s="23">
-        <v>54932403</v>
+      <c r="I61" s="1">
+        <v>54857526</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3362,8 +3366,8 @@
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="23">
-        <v>55049993</v>
+      <c r="I62" s="1">
+        <v>55046375</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>

--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="258">
   <si>
     <t>标书说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,7 +831,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2105041983090022</t>
+    <t>210504198303090022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +911,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,8 +972,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -980,8 +987,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1069,80 +1091,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="97">
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 7" xfId="53"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1185,6 +1233,13 @@
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1225,6 +1280,13 @@
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1557,7 +1619,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2762,7 +2824,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -2791,7 +2853,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -2820,7 +2882,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -2849,7 +2911,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="26" t="s">
         <v>190</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -2878,7 +2940,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="27" t="s">
         <v>190</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -2907,7 +2969,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="27" t="s">
         <v>190</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -3313,19 +3375,19 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="24" t="s">
         <v>254</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="24">
         <v>54857526</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="24">
         <v>1121</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -3337,24 +3399,24 @@
       <c r="H61" s="2">
         <v>0</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="24">
         <v>54857526</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="24" t="s">
         <v>255</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="24">
         <v>55046375</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="24">
         <v>9860</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -3366,8 +3428,120 @@
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="24">
         <v>55046375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:5">
+      <c r="B7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_auction.xlsx
+++ b/init/create_auction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="234">
   <si>
     <t>标书说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,54 +557,6 @@
     <t>1690</t>
   </si>
   <si>
-    <t>王田田</t>
-  </si>
-  <si>
-    <t>342422199010172350</t>
-  </si>
-  <si>
-    <t>54902435</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>范存龙</t>
-  </si>
-  <si>
-    <t>310230196512072112</t>
-  </si>
-  <si>
-    <t>54935613</t>
-  </si>
-  <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>钱俊</t>
-  </si>
-  <si>
-    <t>320622196902061551</t>
-  </si>
-  <si>
-    <t>55099697</t>
-  </si>
-  <si>
-    <t>2052</t>
-  </si>
-  <si>
-    <t>侯黎华</t>
-  </si>
-  <si>
-    <t>310108196601134837</t>
-  </si>
-  <si>
-    <t>55009792</t>
-  </si>
-  <si>
-    <t>5968</t>
-  </si>
-  <si>
     <t>大新闻1</t>
   </si>
   <si>
@@ -621,24 +573,6 @@
     <t>陈进</t>
   </si>
   <si>
-    <t>310227198406060071</t>
-  </si>
-  <si>
-    <t>54917357</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>370883198506037412</t>
-  </si>
-  <si>
-    <t>54911176</t>
-  </si>
-  <si>
-    <t>4971</t>
-  </si>
-  <si>
     <t>杜娟</t>
   </si>
   <si>
@@ -740,14 +674,6 @@
   </si>
   <si>
     <t>张从颖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>扈龙喆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜炜</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -911,7 +837,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,12 +898,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1003,7 +923,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1105,8 +1025,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,17 +1104,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="101">
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 7" xfId="53"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1240,6 +1155,8 @@
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1287,6 +1204,8 @@
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1616,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C60" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1842,10 +1761,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>62</v>
@@ -1987,7 +1906,7 @@
         <v>148</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>135</v>
@@ -2019,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>138</v>
@@ -2106,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>76</v>
@@ -2132,7 +2051,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>78</v>
@@ -2219,7 +2138,7 @@
         <v>146</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>88</v>
@@ -2567,7 +2486,7 @@
         <v>146</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>123</v>
@@ -2651,7 +2570,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="12" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>151</v>
@@ -2680,7 +2599,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="12" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>154</v>
@@ -2709,7 +2628,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>158</v>
@@ -2738,7 +2657,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>162</v>
@@ -2767,7 +2686,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>166</v>
@@ -2796,7 +2715,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>170</v>
@@ -2824,110 +2743,110 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="F44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>61</v>
+      <c r="B45" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>8</v>
@@ -2935,25 +2854,25 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>188</v>
+      <c r="I45" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="27" t="s">
-        <v>190</v>
+      <c r="A46" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>61</v>
@@ -2965,27 +2884,27 @@
         <v>0</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="27" t="s">
-        <v>190</v>
+      <c r="A47" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>8</v>
@@ -2994,27 +2913,27 @@
         <v>0</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>8</v>
@@ -3023,24 +2942,24 @@
         <v>0</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>84</v>
@@ -3052,27 +2971,27 @@
         <v>0</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>43</v>
+      <c r="A50" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="16">
+        <v>54701863</v>
+      </c>
+      <c r="E50" s="16">
+        <v>2107</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
@@ -3080,28 +2999,28 @@
       <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>211</v>
+      <c r="I50" s="16">
+        <v>54701863</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>64</v>
+      <c r="B51" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="18">
+        <v>55014660</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1824</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>8</v>
@@ -3109,28 +3028,28 @@
       <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>215</v>
+      <c r="I51" s="18">
+        <v>55014660</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>61</v>
+      <c r="A52" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="23">
+        <v>54858186</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1167</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>8</v>
@@ -3138,57 +3057,57 @@
       <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="14" t="s">
-        <v>219</v>
+      <c r="I52" s="23">
+        <v>54858186</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="C53" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="23">
+        <v>54932403</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2095</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="23">
+        <v>54932403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="C54" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>54</v>
+      <c r="D54" s="23">
+        <v>55049993</v>
+      </c>
+      <c r="E54" s="23">
+        <v>4142</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>8</v>
@@ -3196,239 +3115,65 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>227</v>
+      <c r="I54" s="23">
+        <v>55049993</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="24">
+        <v>54857526</v>
+      </c>
+      <c r="E55" s="24">
+        <v>1121</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>54857526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" s="14" t="s">
+      <c r="C56" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="24">
+        <v>55046375</v>
+      </c>
+      <c r="E56" s="24">
+        <v>9860</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="16">
-        <v>54701863</v>
-      </c>
-      <c r="E56" s="16">
-        <v>2107</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="16">
-        <v>54701863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" s="18">
-        <v>55014660</v>
-      </c>
-      <c r="E57" s="18">
-        <v>1824</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="18">
-        <v>55014660</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="23">
-        <v>54858186</v>
-      </c>
-      <c r="E58" s="23">
-        <v>1167</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="23">
-        <v>54858186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="23">
-        <v>54932403</v>
-      </c>
-      <c r="E59" s="23">
-        <v>2095</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="23">
-        <v>54932403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="23">
-        <v>55049993</v>
-      </c>
-      <c r="E60" s="23">
-        <v>4142</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="23">
-        <v>55049993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="24">
-        <v>54857526</v>
-      </c>
-      <c r="E61" s="24">
-        <v>1121</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="24">
-        <v>54857526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="24">
-        <v>55046375</v>
-      </c>
-      <c r="E62" s="24">
-        <v>9860</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="24">
+      <c r="I56" s="24">
         <v>55046375</v>
       </c>
     </row>
@@ -3446,102 +3191,1646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:E12"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:5">
-      <c r="B7" s="25" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B38" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="C42" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="D42" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="25" t="s">
+      <c r="E42" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="F42" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="C43" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="D43" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="25" t="s">
+      <c r="E43" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="F43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="C44" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="D44" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="E44" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="C46" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="D46" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="E46" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="F46" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="C47" s="14" t="s">
         <v>200</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="16">
+        <v>54701863</v>
+      </c>
+      <c r="E50" s="16">
+        <v>2107</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>54701863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="18">
+        <v>55014660</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1824</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <v>55014660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="23">
+        <v>54858186</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1167</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="23">
+        <v>54858186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="23">
+        <v>54932403</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2095</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="23">
+        <v>54932403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="23">
+        <v>55049993</v>
+      </c>
+      <c r="E54" s="23">
+        <v>4142</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <v>55049993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="24">
+        <v>54857526</v>
+      </c>
+      <c r="E55" s="24">
+        <v>1121</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>54857526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="24">
+        <v>55046375</v>
+      </c>
+      <c r="E56" s="24">
+        <v>9860</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="24">
+        <v>55046375</v>
       </c>
     </row>
   </sheetData>
